--- a/xlsx/世界盃足球賽_intext.xlsx
+++ b/xlsx/世界盃足球賽_intext.xlsx
@@ -29,7 +29,7 @@
     <t>2018年國際足協世界盃</t>
   </si>
   <si>
-    <t>政策_政策_美國_世界盃足球賽</t>
+    <t>体育运动_体育运动_奥林匹克运动会_世界盃足球賽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E5%8D%94%E5%A5%B3%E5%AD%90%E4%B8%96%E7%95%8C%E7%9B%83</t>
@@ -2425,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
